--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/2/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/2/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3863863863863864</v>
+        <v>0.5233523352335234</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1027.027027027027</v>
+        <v>835.3735373537354</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01161161161161161</v>
+        <v>0.04684468446844685</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2322322322322322</v>
+        <v>0.3531353135313531</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.1601601601602</v>
+        <v>1381.678167816782</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>926.926926926927</v>
+        <v>232.3132313231323</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>342.3423423423424</v>
+        <v>666.5004500450044</v>
       </c>
     </row>
   </sheetData>
